--- a/QALD9-Plus-testing/baseline-model/baseline_dbpedia_wikidata/comparison_results_llama_baseline_dbpedia_wikidata.xlsx
+++ b/QALD9-Plus-testing/baseline-model/baseline_dbpedia_wikidata/comparison_results_llama_baseline_dbpedia_wikidata.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Assassination_of_Wissam_al-Hassan']</t>
+          <t>['http://dbpedia.org/resource/Execution_by_hanging']</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
